--- a/biology/Mycologie/Verpe_de_Bohême/Verpe_de_Bohême.xlsx
+++ b/biology/Mycologie/Verpe_de_Bohême/Verpe_de_Bohême.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Verpe_de_Boh%C3%AAme</t>
+          <t>Verpe_de_Bohême</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ptychoverpa bohemica, Verpa bohemica
 La Verpe de Bohême (Ptychoverpa bohemica, syn. Verpa bohemica), est une espèce de champignons ascomycètes de la famille des Morchellaceae. Elle présente certaines similitudes avec les morilles (genre Morchella), bien qu'elle n'en fasse pas partie. Son chapeau conique, qui n'est pas soudé au pied, est orné de grosses rides très irrégulières mais n'a pas les alvéoles caractéristiques des morilles. Comme ces dernières, elle apparaît au début du printemps en terrains humides et sablonneux. Elle n'est pas très fréquente, plus abondante en montagne.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Verpe_de_Boh%C3%AAme</t>
+          <t>Verpe_de_Bohême</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite pour la première fois en 1828 par Julius Vincenz von Krombholz sous le nom de Morchella bohemica. Il choisit l'épithète spécifique en allusion à la Bohême, région historique de l'actuelle République tchèque dont il est originaire et où il collecte les spécimens de ce champignon. Le naturaliste allemand Joseph Schröter le transfère dans le genre Verpa en 1893. En 1907, le Français Émile Boudier publie un traité sur les Discomycètes d'Europe dans lequel il considère les caractéristiques de ce champignon suffisantes pour le séparer dans un nouveau genre, Ptychoverpa, dont il devient l'espèce type[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite pour la première fois en 1828 par Julius Vincenz von Krombholz sous le nom de Morchella bohemica. Il choisit l'épithète spécifique en allusion à la Bohême, région historique de l'actuelle République tchèque dont il est originaire et où il collecte les spécimens de ce champignon. Le naturaliste allemand Joseph Schröter le transfère dans le genre Verpa en 1893. En 1907, le Français Émile Boudier publie un traité sur les Discomycètes d'Europe dans lequel il considère les caractéristiques de ce champignon suffisantes pour le séparer dans un nouveau genre, Ptychoverpa, dont il devient l'espèce type.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Verpe_de_Boh%C3%AAme</t>
+          <t>Verpe_de_Bohême</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chapeau (qui est une apothécie[2]) est conique et mesure en moyenne de 2 à 5 cm de haut pour 2 à 4 cm de large[3]. Il est campanulé[4] et posé sur le pied comme un dé à coudre[5]. Sa surface interne est blanc jaunâtre et constitue la partie stérile. La surface fertile se situe à l'extérieur : elle est profondément marquée par des côtes épaisses et flexueuses qui sont orientées longitudinalement et parfois ramifiées. Elles sont brun-jaune à fauve et forment des cavités et des sillons très différents des alvéoles des morilles. La marge est libre et sinueuse, et peut présenter un mince filet blanc[4]. Le stipe est cylindrique et un peu rétréci vers le chapeau. Il s'allonge parfois démesurément, jusqu'à 20 cm de long, donnant un port particulièrement élevé au champignon. Sa surface est blanc jaunâtre et montre de zébrures floconneuses blanchâtres[6]. Il est fragile, d'abord farci d'une moelle cotonneuse, puis devient vite creux[3]. Il pénètre dans le chapeau et s'y rattache à mi-hauteur environ[7]. La chair du champignon est blanchâtre, mince et fragile, à la consistance de cire d'abeille[3]. Sa saveur est douce et son odeur d'abord fongique et agréable, puis spermatique avec l'âge[5]. La sporée est jaune[4].
-Espèces proches
-Par son apparition précoce, son habitat et sa silhouette, la Verpe de Bohême est souvent confondues avec les différentes morilles (Morchella spp.) et morillons (Mitrophora semilibera). Elle est aussi fréquemment vendue comme « morille » sur les marchés[4]. Ses principaux caractères ditinctifs sont l'absence d'alvéoles et son chapeau qui n'est pas soudé au pied[5]. Il existe aussi d'autres verpes très proches, comme Verpa conica[4] ou Verpa digitaliformis[5]. Elles sont plus petites et leurs chapeaux sont presque lisses ou à peine ridés[4].
-Un risque important de confusion existe avec la Gyromitre (Gyromitra esculenta) qui a déjà provoqué des empoisonnements mortels. Elle a un chapeau en forme de cervelle qui est soudé au pied à sa base[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chapeau (qui est une apothécie) est conique et mesure en moyenne de 2 à 5 cm de haut pour 2 à 4 cm de large. Il est campanulé et posé sur le pied comme un dé à coudre. Sa surface interne est blanc jaunâtre et constitue la partie stérile. La surface fertile se situe à l'extérieur : elle est profondément marquée par des côtes épaisses et flexueuses qui sont orientées longitudinalement et parfois ramifiées. Elles sont brun-jaune à fauve et forment des cavités et des sillons très différents des alvéoles des morilles. La marge est libre et sinueuse, et peut présenter un mince filet blanc. Le stipe est cylindrique et un peu rétréci vers le chapeau. Il s'allonge parfois démesurément, jusqu'à 20 cm de long, donnant un port particulièrement élevé au champignon. Sa surface est blanc jaunâtre et montre de zébrures floconneuses blanchâtres. Il est fragile, d'abord farci d'une moelle cotonneuse, puis devient vite creux. Il pénètre dans le chapeau et s'y rattache à mi-hauteur environ. La chair du champignon est blanchâtre, mince et fragile, à la consistance de cire d'abeille. Sa saveur est douce et son odeur d'abord fongique et agréable, puis spermatique avec l'âge. La sporée est jaune.
 </t>
         </is>
       </c>
@@ -560,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Verpe_de_Boh%C3%AAme</t>
+          <t>Verpe_de_Bohême</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +588,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et distribution</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Surtout répandue en montagne, la Verpe de Bohême est un champignon printanier[4]. Elle pousse dans les taillis, sous les frênes, les ormeaux et les noisetiers[6].
+          <t>Espèces proches</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par son apparition précoce, son habitat et sa silhouette, la Verpe de Bohême est souvent confondues avec les différentes morilles (Morchella spp.) et morillons (Mitrophora semilibera). Elle est aussi fréquemment vendue comme « morille » sur les marchés. Ses principaux caractères ditinctifs sont l'absence d'alvéoles et son chapeau qui n'est pas soudé au pied. Il existe aussi d'autres verpes très proches, comme Verpa conica ou Verpa digitaliformis. Elles sont plus petites et leurs chapeaux sont presque lisses ou à peine ridés.
+Un risque important de confusion existe avec la Gyromitre (Gyromitra esculenta) qui a déjà provoqué des empoisonnements mortels. Elle a un chapeau en forme de cervelle qui est soudé au pied à sa base.
 </t>
         </is>
       </c>
@@ -591,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Verpe_de_Boh%C3%AAme</t>
+          <t>Verpe_de_Bohême</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,17 +626,52 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Surtout répandue en montagne, la Verpe de Bohême est un champignon printanier. Elle pousse dans les taillis, sous les frênes, les ormeaux et les noisetiers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Verpe_de_Bohême</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Verpe_de_Boh%C3%AAme</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
  Verpes de Bohême coupées en lamelles (haut) et servies poêlées dans l'huile avec du citron (bas).
-La Verpe de Bohême est traditionnellement considérée comme comestible : jugée excellente[5], ou un peu inférieure aux vraies morilles[4]. Comme ces dernières, elle est toxique crue et ne peut être consommée que bouillie dans une grande quantité d'eau, jetée après cuisson[8], ou séchée[9].
-Il faut cependant noter que des effets indésirables ont été constatés chez des individus sensibles à la suite d'une consommation excessive en une seule prise ou de façon répétée sur plusieurs jours[10]. Les symptômes décrits comprennent un dérangement intestinal et une défaillance de coordination motrice. Des cas de coma après consommation excessive du champignon ont été rapportés[11]. Ils ont longtemps été considérés analogues à ceux que provoque l'ingestion de Gyromitra esculenta (syndrome gyromitrien)[12]. Une hypothèse était que Verpa bohemica synthétiserait de faibles quantités de la même toxine (gyromitrine (en))[13], mais elle est actuellement réfutée par les spécialistes de la mycotoxicologie[14],[15],[16],[17]. Il est désormais admis qu'il provoque des intoxications similaires à celles des morilles (syndrome gastro-intestinal et syndrome cérébelleux)[16],[15].
-Malgré ces réserves, la Verpe de Bohême continue d'être signalée comme comestible par la Société mycologique de France[18]. Elle fait également partie de la liste des champignons comestibles publiée par l'Agence nationale de sécurité sanitaire de l'alimentation, de l'environnement et du travail (France) en 2017[19]. En Suisse, elle est reprise dans la liste positive des champignons comestibles commercialisables entérinée par le Département fédéral de l'intérieur dans une ordonnance de 2016[20].
-Dans le doute, il est conseillé de s'en tenir à de petites quantités, surtout s'il s'agit d'une première dégustation, afin de vérifier le niveau de tolérance du consommateur[21]. Certains spécialistes recommandent également de ne consommer que le chapeau et non le pied[22].
+La Verpe de Bohême est traditionnellement considérée comme comestible : jugée excellente, ou un peu inférieure aux vraies morilles. Comme ces dernières, elle est toxique crue et ne peut être consommée que bouillie dans une grande quantité d'eau, jetée après cuisson, ou séchée.
+Il faut cependant noter que des effets indésirables ont été constatés chez des individus sensibles à la suite d'une consommation excessive en une seule prise ou de façon répétée sur plusieurs jours. Les symptômes décrits comprennent un dérangement intestinal et une défaillance de coordination motrice. Des cas de coma après consommation excessive du champignon ont été rapportés. Ils ont longtemps été considérés analogues à ceux que provoque l'ingestion de Gyromitra esculenta (syndrome gyromitrien). Une hypothèse était que Verpa bohemica synthétiserait de faibles quantités de la même toxine (gyromitrine (en)), mais elle est actuellement réfutée par les spécialistes de la mycotoxicologie. Il est désormais admis qu'il provoque des intoxications similaires à celles des morilles (syndrome gastro-intestinal et syndrome cérébelleux),.
+Malgré ces réserves, la Verpe de Bohême continue d'être signalée comme comestible par la Société mycologique de France. Elle fait également partie de la liste des champignons comestibles publiée par l'Agence nationale de sécurité sanitaire de l'alimentation, de l'environnement et du travail (France) en 2017. En Suisse, elle est reprise dans la liste positive des champignons comestibles commercialisables entérinée par le Département fédéral de l'intérieur dans une ordonnance de 2016.
+Dans le doute, il est conseillé de s'en tenir à de petites quantités, surtout s'il s'agit d'une première dégustation, afin de vérifier le niveau de tolérance du consommateur. Certains spécialistes recommandent également de ne consommer que le chapeau et non le pied.
 </t>
         </is>
       </c>
